--- a/my_first_django/crypto_currency/coins_crypto.xlsx
+++ b/my_first_django/crypto_currency/coins_crypto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,136 +436,167 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>coins</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>BTCUSDT</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>ETHUSDT</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>XRPUSDT</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>WAVESUSDT</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>NEARUSDT</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>CAKEUSDT</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>MATICUSDT</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ATOMUSDT</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>APTUSDT</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>DOGEUSDT</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>29028.487</v>
-      </c>
       <c r="B2" t="n">
-        <v>1830.194</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.628</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1.347</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1.496</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.666</v>
-      </c>
-      <c r="H2" t="n">
-        <v>8.492000000000001</v>
-      </c>
-      <c r="I2" t="n">
-        <v>6.733</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.075</v>
+        <v>29093.06</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2023-08-06 22:31:11</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2023-08-06 16:50:37</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2023-08-06 16:50:37</t>
-        </is>
+          <t>ETHUSDT</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1832.261</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2023-08-06 16:50:38</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2023-08-06 16:50:38</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2023-08-06 16:50:39</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2023-08-06 16:50:40</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2023-08-06 16:50:40</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2023-08-06 16:50:40</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>2023-08-06 16:50:41</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>2023-08-06 16:50:41</t>
+          <t>2023-08-06 22:31:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>XRPUSDT</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.627</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2023-08-06 22:31:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>WAVESUSDT</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2023-08-06 22:31:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>NEARUSDT</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1.343</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2023-08-06 22:31:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CAKEUSDT</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1.499</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2023-08-06 22:31:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>MATICUSDT</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.666</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2023-08-06 22:31:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ATOMUSDT</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8.494999999999999</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2023-08-06 22:31:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>APTUSDT</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6.729</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2023-08-06 22:31:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>DOGEUSDT</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2023-08-06 22:31:15</t>
         </is>
       </c>
     </row>
